--- a/public/upload/report/SURAT KENAIKAN GAJI BERKALA (RATNA NAIM).xlsx
+++ b/public/upload/report/SURAT KENAIKAN GAJI BERKALA (RATNA NAIM).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>PEMERINTAH PROVINSI SULAWESI TENGGARA</t>
   </si>
@@ -32,12 +32,15 @@
     <t>Nomor</t>
   </si>
   <si>
-    <t xml:space="preserve">: </t>
+    <t>: 123/2023</t>
   </si>
   <si>
     <t>Lampiran</t>
   </si>
   <si>
+    <t>: 2 Lembar</t>
+  </si>
+  <si>
     <t>Perihal</t>
   </si>
   <si>
@@ -47,7 +50,7 @@
     <t xml:space="preserve">  An.RATNA NAIM</t>
   </si>
   <si>
-    <t>Kendari,  01-01-1970</t>
+    <t>Kendari,  22-08-2023</t>
   </si>
   <si>
     <t>Kepada</t>
@@ -667,12 +670,12 @@
     </row>
     <row r="6" spans="1:8">
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -683,10 +686,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -694,39 +697,39 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -734,10 +737,10 @@
         <v>1.0</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -745,10 +748,10 @@
         <v>2.0</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -756,10 +759,10 @@
         <v>3.0</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -767,10 +770,10 @@
         <v>4.0</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -778,65 +781,65 @@
         <v>5.0</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="C26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="C27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="C28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="C29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -844,10 +847,10 @@
         <v>6.0</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -855,10 +858,10 @@
         <v>7.0</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -866,10 +869,10 @@
         <v>8.0</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -877,10 +880,10 @@
         <v>9.0</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -888,10 +891,10 @@
         <v>10.0</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -899,50 +902,50 @@
         <v>11.0</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="D40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="D41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="D45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="D46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="D47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
